--- a/biology/Histoire de la zoologie et de la botanique/Theodore_Augustine_Mann/Theodore_Augustine_Mann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodore_Augustine_Mann/Theodore_Augustine_Mann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodore Augustine Mann[N 1], plus connu sous le nom d'abbé Mann, né le 22 juin 1735 dans le Yorkshire et mort le 23 février 1809 à Prague, est un écrivain polygraphe, naturaliste et historien anglais, moine chartreux.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite de divergences de vues avec son père, il se rend à Paris en 1756, où il se convertit au catholicisme. La guerre de Sept Ans l'oblige à quitter la France et à se rendre en Flandre, à Nieuport, où il s'installe à la chartreuse de Sheen Anglorum et devient chartreux. En 1774, il est élu membre de l'Académie impériale et royale des sciences et belles lettres de Bruxelles, dont il devient secrétaire perpétuel en 1787. Il s'établit à Bruxelles en 1777 et quitte la ville en 1797 pour échapper à l'occupation française des Pays-Bas. Il se rend à Prague où il meurt en 1809[1].
-Écrivain prolifique, il traite de toutes les disciplines, de la météorologie[2] au théâtre, de l'entomologie à l'histoire de Bruxelles. Il contribue également à des revues comme The Gentleman's Magazine, le Journal des savants ou L'Esprit des journaux[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de divergences de vues avec son père, il se rend à Paris en 1756, où il se convertit au catholicisme. La guerre de Sept Ans l'oblige à quitter la France et à se rendre en Flandre, à Nieuport, où il s'installe à la chartreuse de Sheen Anglorum et devient chartreux. En 1774, il est élu membre de l'Académie impériale et royale des sciences et belles lettres de Bruxelles, dont il devient secrétaire perpétuel en 1787. Il s'établit à Bruxelles en 1777 et quitte la ville en 1797 pour échapper à l'occupation française des Pays-Bas. Il se rend à Prague où il meurt en 1809.
+Écrivain prolifique, il traite de toutes les disciplines, de la météorologie au théâtre, de l'entomologie à l'histoire de Bruxelles. Il contribue également à des revues comme The Gentleman's Magazine, le Journal des savants ou L'Esprit des journaux.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire sur la conservation et le commerce des grains, Malines, 1764.
 L'Art de garantir les maisons d'incendie, Lyon, 1769 Lire en ligne ; réédition : Mémoire sur les diverses méthodes inventées jusqu'à présent pour garantir les édifices d'incendie, Bruxelles, 1778.
